--- a/Stuff/Toolevaluierung.xlsx
+++ b/Stuff/Toolevaluierung.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\La TeX\t3000\Doku\Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Thesen\T3000\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F903B7E7-29D5-4413-8978-EAB3CF3A65BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Anforderung</t>
   </si>
@@ -32,21 +41,6 @@
     <t>Gewichtung</t>
   </si>
   <si>
-    <t>Tool1</t>
-  </si>
-  <si>
-    <t>Tool2</t>
-  </si>
-  <si>
-    <t>Tool3</t>
-  </si>
-  <si>
-    <t>Tool4</t>
-  </si>
-  <si>
-    <t>Tool5</t>
-  </si>
-  <si>
     <t>F-1</t>
   </si>
   <si>
@@ -72,12 +66,54 @@
   </si>
   <si>
     <t>Summe</t>
+  </si>
+  <si>
+    <t>uninitialized var</t>
+  </si>
+  <si>
+    <t>null pointer dereference</t>
+  </si>
+  <si>
+    <t>kein korrekter code markiert</t>
+  </si>
+  <si>
+    <t>automatisierbar</t>
+  </si>
+  <si>
+    <t>erklärung zu fehlermeldung</t>
+  </si>
+  <si>
+    <t>risikoanalyse</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>anleitung</t>
+  </si>
+  <si>
+    <t>PC-lint Plus</t>
+  </si>
+  <si>
+    <t>UBSan</t>
+  </si>
+  <si>
+    <t>PVS-Studio</t>
+  </si>
+  <si>
+    <t>Valgrind</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Cppcheck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,19 +535,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -519,188 +555,209 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
       <c r="C2" s="10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D2" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.7</v>
       </c>
       <c r="G2" s="14">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D3" s="10">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E3" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.5</v>
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.7</v>
       </c>
       <c r="G3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
       </c>
       <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="13">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="D5" s="10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
         <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
       </c>
       <c r="G7" s="13">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.4</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -711,40 +768,43 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
-        <v>1</v>
+      <c r="F9" s="12">
+        <v>0.5</v>
       </c>
       <c r="G9" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7">
         <f>B2+B3+B4+B5+B6+B7+B8+B9</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <f>SUMPRODUCT(B2:B9,C2:C9)</f>
-        <v>11.8</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
         <f>SUMPRODUCT(B2:B9,D2:D9)</f>
-        <v>10.1</v>
+        <v>26.5</v>
       </c>
       <c r="E10" s="8">
         <f>SUMPRODUCT(B2:B9,E2:E9)</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F10" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="F10" s="3">
         <f>SUMPRODUCT(B2:B9,F2:F9)</f>
-        <v>10.9</v>
+        <v>13</v>
       </c>
       <c r="G10" s="3">
         <f>SUMPRODUCT(B2:B9,G2:G9)</f>
-        <v>15</v>
+        <v>24.2</v>
       </c>
     </row>
   </sheetData>

--- a/Stuff/Toolevaluierung.xlsx
+++ b/Stuff/Toolevaluierung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Thesen\T3000\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F903B7E7-29D5-4413-8978-EAB3CF3A65BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1282D410-BC27-4C9C-BA22-A7E16175D372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Anforderung</t>
   </si>
@@ -114,6 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -256,6 +259,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -536,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,8 +642,8 @@
       <c r="E4" s="10">
         <v>0.7</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>23</v>
+      <c r="F4" s="13">
+        <v>1</v>
       </c>
       <c r="G4" s="13">
         <v>0.3</v>
@@ -664,8 +668,8 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>23</v>
+      <c r="F5" s="13">
+        <v>1</v>
       </c>
       <c r="G5" s="13">
         <v>1</v>
@@ -742,8 +746,8 @@
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>23</v>
+      <c r="F8" s="13">
+        <v>0.8</v>
       </c>
       <c r="G8" s="13">
         <v>1</v>
@@ -800,11 +804,16 @@
       </c>
       <c r="F10" s="3">
         <f>SUMPRODUCT(B2:B9,F2:F9)</f>
-        <v>13</v>
+        <v>22.2</v>
       </c>
       <c r="G10" s="3">
         <f>SUMPRODUCT(B2:B9,G2:G9)</f>
         <v>24.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" s="15">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/Stuff/Toolevaluierung.xlsx
+++ b/Stuff/Toolevaluierung.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24206"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Thesen\T3000\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1282D410-BC27-4C9C-BA22-A7E16175D372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF21506-B7B7-4798-9FEC-610D0DAB4FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Anforderung</t>
   </si>
@@ -41,73 +42,70 @@
     <t>Gewichtung</t>
   </si>
   <si>
-    <t>F-1</t>
-  </si>
-  <si>
-    <t>F-2</t>
-  </si>
-  <si>
-    <t>F-3</t>
-  </si>
-  <si>
-    <t>F-4</t>
-  </si>
-  <si>
-    <t>F-5</t>
-  </si>
-  <si>
-    <t>F-6</t>
-  </si>
-  <si>
-    <t>NF-3</t>
-  </si>
-  <si>
-    <t>NF-2</t>
+    <t>PC-lint Plus</t>
+  </si>
+  <si>
+    <t>Cppcheck</t>
+  </si>
+  <si>
+    <t>UBSan</t>
+  </si>
+  <si>
+    <t>PVS-Studio</t>
+  </si>
+  <si>
+    <t>Valgrind</t>
+  </si>
+  <si>
+    <t>F-1 (uninitialisiert)</t>
+  </si>
+  <si>
+    <t>uninitialized var</t>
+  </si>
+  <si>
+    <t>F-2 (null dereference)</t>
+  </si>
+  <si>
+    <t>null pointer dereference</t>
+  </si>
+  <si>
+    <t>F-3 (false positives)</t>
+  </si>
+  <si>
+    <t>kein korrekter code markiert</t>
+  </si>
+  <si>
+    <t>F-4 (automatisierbar)</t>
+  </si>
+  <si>
+    <t>automatisierbar</t>
+  </si>
+  <si>
+    <t>F-5 (Fehlererklärung)</t>
+  </si>
+  <si>
+    <t>erklärung zu fehlermeldung</t>
+  </si>
+  <si>
+    <t>F-6 (Risikoanalyse)</t>
+  </si>
+  <si>
+    <t>risikoanalyse</t>
+  </si>
+  <si>
+    <t>NF-2 (Kosten)</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>NF-3 (Anleitung)</t>
+  </si>
+  <si>
+    <t>anleitung</t>
   </si>
   <si>
     <t>Summe</t>
-  </si>
-  <si>
-    <t>uninitialized var</t>
-  </si>
-  <si>
-    <t>null pointer dereference</t>
-  </si>
-  <si>
-    <t>kein korrekter code markiert</t>
-  </si>
-  <si>
-    <t>automatisierbar</t>
-  </si>
-  <si>
-    <t>erklärung zu fehlermeldung</t>
-  </si>
-  <si>
-    <t>risikoanalyse</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>anleitung</t>
-  </si>
-  <si>
-    <t>PC-lint Plus</t>
-  </si>
-  <si>
-    <t>UBSan</t>
-  </si>
-  <si>
-    <t>PVS-Studio</t>
-  </si>
-  <si>
-    <t>Valgrind</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Cppcheck</t>
   </si>
 </sst>
 </file>
@@ -117,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,15 +541,15 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -559,24 +557,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -597,12 +595,12 @@
         <v>0.6</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -623,12 +621,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -640,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="13">
         <v>1</v>
@@ -649,12 +647,12 @@
         <v>0.3</v>
       </c>
       <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -678,9 +676,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -701,12 +699,12 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -727,18 +725,18 @@
         <v>0.3</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
+      <c r="C8" s="10">
+        <v>0.5</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -747,18 +745,18 @@
         <v>1</v>
       </c>
       <c r="F8" s="13">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G8" s="13">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
         <v>4</v>
@@ -773,18 +771,18 @@
         <v>1</v>
       </c>
       <c r="F9" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="12">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7">
         <f>B2+B3+B4+B5+B6+B7+B8+B9</f>
@@ -792,7 +790,7 @@
       </c>
       <c r="C10" s="2">
         <f>SUMPRODUCT(B2:B9,C2:C9)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <f>SUMPRODUCT(B2:B9,D2:D9)</f>
@@ -800,18 +798,18 @@
       </c>
       <c r="E10" s="8">
         <f>SUMPRODUCT(B2:B9,E2:E9)</f>
-        <v>24.1</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3">
         <f>SUMPRODUCT(B2:B9,F2:F9)</f>
-        <v>22.2</v>
+        <v>23.8</v>
       </c>
       <c r="G10" s="3">
         <f>SUMPRODUCT(B2:B9,G2:G9)</f>
         <v>24.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="F12" s="15">
         <v>20000</v>
       </c>

--- a/Stuff/Toolevaluierung.xlsx
+++ b/Stuff/Toolevaluierung.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Thesen\T3000\Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\La TeX\t3000\Doku\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF21506-B7B7-4798-9FEC-610D0DAB4FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Anforderung</t>
   </si>
@@ -87,9 +78,6 @@
     <t>erklärung zu fehlermeldung</t>
   </si>
   <si>
-    <t>F-6 (Risikoanalyse)</t>
-  </si>
-  <si>
     <t>risikoanalyse</t>
   </si>
   <si>
@@ -106,16 +94,25 @@
   </si>
   <si>
     <t>Summe</t>
+  </si>
+  <si>
+    <t>NF-1 (Integration)</t>
+  </si>
+  <si>
+    <t>F-6 (Lösungsvorschläge)</t>
+  </si>
+  <si>
+    <t>F-7 (Risikoanalyse)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,19 +534,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -572,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -598,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -624,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -650,7 +648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -676,7 +674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -698,121 +696,163 @@
       <c r="G6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
+      <c r="B12" s="7">
+        <f>SUM(B2:B11)</f>
+        <v>32</v>
+      </c>
+      <c r="C12" s="2">
+        <f>SUMPRODUCT(B2:B11,C2:C11)</f>
         <v>23</v>
       </c>
-      <c r="B10" s="7">
-        <f>B2+B3+B4+B5+B6+B7+B8+B9</f>
-        <v>29</v>
-      </c>
-      <c r="C10" s="2">
-        <f>SUMPRODUCT(B2:B9,C2:C9)</f>
-        <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUMPRODUCT(B2:B9,D2:D9)</f>
+      <c r="D12" s="2">
+        <f>SUMPRODUCT(B2:B11,D2:D11)</f>
         <v>26.5</v>
       </c>
-      <c r="E10" s="8">
-        <f>SUMPRODUCT(B2:B9,E2:E9)</f>
+      <c r="E12" s="8">
+        <f>SUMPRODUCT(B2:B11,E2:E11)</f>
         <v>25</v>
       </c>
-      <c r="F10" s="3">
-        <f>SUMPRODUCT(B2:B9,F2:F9)</f>
-        <v>23.8</v>
-      </c>
-      <c r="G10" s="3">
-        <f>SUMPRODUCT(B2:B9,G2:G9)</f>
+      <c r="F12" s="3">
+        <f>SUMPRODUCT(B2:B11,F2:F11)</f>
+        <v>25.8</v>
+      </c>
+      <c r="G12" s="3">
+        <f>SUMPRODUCT(B2:B11,G2:G11)</f>
         <v>24.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="F12" s="15">
-        <v>20000</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stuff/Toolevaluierung.xlsx
+++ b/Stuff/Toolevaluierung.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -538,7 +537,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +580,13 @@
         <v>0.7</v>
       </c>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="E2" s="10">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="13">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="G2" s="14">
         <v>0.6</v>
@@ -607,13 +606,13 @@
         <v>0.7</v>
       </c>
       <c r="D3" s="10">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="E3" s="10">
         <v>0.7</v>
       </c>
       <c r="F3" s="13">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="13">
         <v>1</v>
@@ -633,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -836,15 +835,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUMPRODUCT(B2:B11,D2:D11)</f>
-        <v>26.5</v>
+        <v>23.1</v>
       </c>
       <c r="E12" s="8">
         <f>SUMPRODUCT(B2:B11,E2:E11)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3">
         <f>SUMPRODUCT(B2:B11,F2:F11)</f>
-        <v>25.8</v>
+        <v>26.05</v>
       </c>
       <c r="G12" s="3">
         <f>SUMPRODUCT(B2:B11,G2:G11)</f>
